--- a/doc/TBG Power MQTT Topic Documentation.xlsx
+++ b/doc/TBG Power MQTT Topic Documentation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zain\NewTechnologyDept\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimas\Documents\GitHub\tbg\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5A93A3-C4C5-4411-8D36-3111CA684C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MQTT Payload Format" sheetId="3" r:id="rId1"/>
@@ -29,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
   <si>
-    <t>{“AC Voltage”:{“L1”:220,”L2”:220,”L3”:220},”AC Current”:{“L1”:2,”L2”:2,”L3”:2.3}, “DC Voltage”:40,”DC Current”:20,}</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -242,12 +240,6 @@
     <t>payload example</t>
   </si>
   <si>
-    <t>{“online”: boolean,”ip”:”VPN IP”}</t>
-  </si>
-  <si>
-    <t>{ “AC Fail”: 1 “High Temp”: 0 , }</t>
-  </si>
-  <si>
     <t>true or false value</t>
   </si>
   <si>
@@ -296,12 +288,6 @@
     <t>e</t>
   </si>
   <si>
-    <t>{“online”: 1,”ip”:”VPN IP”}</t>
-  </si>
-  <si>
-    <t>{“online”: 0,”ip”:”VPN IP”}</t>
-  </si>
-  <si>
     <t>HOST</t>
   </si>
   <si>
@@ -339,13 +325,28 @@
   </si>
   <si>
     <t>this topic musbe publish with 30 minutes interval</t>
+  </si>
+  <si>
+    <t>{"online": boolean,"ip":"VPN IP"}</t>
+  </si>
+  <si>
+    <t>{"AC Voltage":{"L1":220,"L2":220,"L3":220},"AC Current":{"L1":2,"L2":2,"L3":2.3}, "DC Voltage":40,"DC Current":20,}</t>
+  </si>
+  <si>
+    <t>{ "AC Fail": 1 "High Temp": 0 , }</t>
+  </si>
+  <si>
+    <t>{"online": 1,"ip":"VPN IP"}</t>
+  </si>
+  <si>
+    <t>{"online": 0,"ip":"VPN IP"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +377,26 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -472,7 +493,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
@@ -492,17 +513,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
@@ -786,167 +810,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="103.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -954,8 +978,8 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G6" location="Parameters!A1" display="payload follows Parameters tab"/>
-    <hyperlink ref="G7" location="Alarm!A1" display="payload follows Alarms tab"/>
+    <hyperlink ref="G6" location="Parameters!A1" display="payload follows Parameters tab" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G7" location="Alarm!A1" display="payload follows Alarms tab" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -963,156 +987,156 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>98</v>
+      <c r="B15" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1124,429 +1148,429 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="D3" s="15"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="D7" s="15"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
+      <c r="B8" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
+      <c r="B9" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
+      <c r="B10" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
+      <c r="B12" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="D13" s="15"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
+      <c r="B14" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
+      <c r="B15" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="D15" s="15"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="D16" s="15"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>14</v>
+      <c r="B18" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="D19" s="15"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="D20" s="15"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="D21" s="15"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="D24" s="15"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>29</v>
+      <c r="B27" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="D27" s="15"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>55</v>
+      <c r="B28" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>98</v>
+      <c r="B29" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1554,50 +1578,51 @@
     <mergeCell ref="D2:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C5" s="10">
         <v>1884</v>
